--- a/www/IndicatorsPerCountry/Belgium_GDPperCapita_TerritorialRef_1946_2012_CCode_56.xlsx
+++ b/www/IndicatorsPerCountry/Belgium_GDPperCapita_TerritorialRef_1946_2012_CCode_56.xlsx
@@ -573,13 +573,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Belgium_GDPperCapita_TerritorialRef_1946_2012_CCode_56.xlsx
+++ b/www/IndicatorsPerCountry/Belgium_GDPperCapita_TerritorialRef_1946_2012_CCode_56.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="195">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,514 +36,532 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>1467</t>
+    <t>2338</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>1512</t>
-  </si>
-  <si>
-    <t>1589</t>
-  </si>
-  <si>
-    <t>1445</t>
-  </si>
-  <si>
-    <t>1375</t>
-  </si>
-  <si>
-    <t>1361</t>
-  </si>
-  <si>
-    <t>1479</t>
-  </si>
-  <si>
-    <t>1694</t>
-  </si>
-  <si>
-    <t>1762</t>
-  </si>
-  <si>
-    <t>1754</t>
-  </si>
-  <si>
-    <t>1790</t>
-  </si>
-  <si>
-    <t>1847</t>
-  </si>
-  <si>
-    <t>1886</t>
-  </si>
-  <si>
-    <t>1924</t>
-  </si>
-  <si>
-    <t>1962</t>
-  </si>
-  <si>
-    <t>2070</t>
-  </si>
-  <si>
-    <t>2071</t>
-  </si>
-  <si>
-    <t>2170</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2197</t>
-  </si>
-  <si>
-    <t>2293</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2354</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2466</t>
-  </si>
-  <si>
-    <t>2448</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2497</t>
-  </si>
-  <si>
-    <t>2569</t>
-  </si>
-  <si>
-    <t>2663</t>
-  </si>
-  <si>
-    <t>2692</t>
-  </si>
-  <si>
-    <t>2682</t>
-  </si>
-  <si>
-    <t>2824</t>
-  </si>
-  <si>
-    <t>2820</t>
-  </si>
-  <si>
-    <t>2890</t>
-  </si>
-  <si>
-    <t>2861</t>
-  </si>
-  <si>
-    <t>2875</t>
-  </si>
-  <si>
-    <t>2884</t>
-  </si>
-  <si>
-    <t>2942</t>
-  </si>
-  <si>
-    <t>2945</t>
-  </si>
-  <si>
-    <t>3065</t>
-  </si>
-  <si>
-    <t>3070</t>
-  </si>
-  <si>
-    <t>3136</t>
-  </si>
-  <si>
-    <t>3145</t>
-  </si>
-  <si>
-    <t>3138</t>
-  </si>
-  <si>
-    <t>3153</t>
-  </si>
-  <si>
-    <t>3250</t>
-  </si>
-  <si>
-    <t>3247</t>
-  </si>
-  <si>
-    <t>3379</t>
-  </si>
-  <si>
-    <t>3428</t>
-  </si>
-  <si>
-    <t>3395</t>
-  </si>
-  <si>
-    <t>3442</t>
-  </si>
-  <si>
-    <t>3455</t>
-  </si>
-  <si>
-    <t>3468</t>
-  </si>
-  <si>
-    <t>3512</t>
-  </si>
-  <si>
-    <t>3551</t>
-  </si>
-  <si>
-    <t>3586</t>
-  </si>
-  <si>
-    <t>3615</t>
-  </si>
-  <si>
-    <t>3656</t>
-  </si>
-  <si>
-    <t>3731</t>
-  </si>
-  <si>
-    <t>3719</t>
-  </si>
-  <si>
-    <t>3739</t>
-  </si>
-  <si>
-    <t>3772</t>
-  </si>
-  <si>
-    <t>3821</t>
-  </si>
-  <si>
-    <t>3882</t>
-  </si>
-  <si>
-    <t>3917</t>
-  </si>
-  <si>
-    <t>3932</t>
-  </si>
-  <si>
-    <t>3933</t>
-  </si>
-  <si>
-    <t>3971</t>
-  </si>
-  <si>
-    <t>4064</t>
-  </si>
-  <si>
-    <t>4148</t>
-  </si>
-  <si>
-    <t>4206</t>
-  </si>
-  <si>
-    <t>4220</t>
-  </si>
-  <si>
-    <t>3923</t>
-  </si>
-  <si>
-    <t>3858</t>
-  </si>
-  <si>
-    <t>4080</t>
-  </si>
-  <si>
-    <t>3519</t>
-  </si>
-  <si>
-    <t>3389</t>
-  </si>
-  <si>
-    <t>3962</t>
-  </si>
-  <si>
-    <t>4056</t>
-  </si>
-  <si>
-    <t>4413</t>
-  </si>
-  <si>
-    <t>4533</t>
-  </si>
-  <si>
-    <t>4638</t>
-  </si>
-  <si>
-    <t>4666</t>
-  </si>
-  <si>
-    <t>4784</t>
-  </si>
-  <si>
-    <t>4923</t>
-  </si>
-  <si>
-    <t>5139</t>
-  </si>
-  <si>
-    <t>5054</t>
-  </si>
-  <si>
-    <t>4979</t>
-  </si>
-  <si>
-    <t>4860</t>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2533</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2192</t>
+  </si>
+  <si>
+    <t>2169</t>
+  </si>
+  <si>
+    <t>2358</t>
+  </si>
+  <si>
+    <t>2700</t>
+  </si>
+  <si>
+    <t>2809</t>
+  </si>
+  <si>
+    <t>2796</t>
+  </si>
+  <si>
+    <t>2853</t>
+  </si>
+  <si>
+    <t>2944</t>
+  </si>
+  <si>
+    <t>3006</t>
+  </si>
+  <si>
+    <t>3067</t>
+  </si>
+  <si>
+    <t>3127</t>
+  </si>
+  <si>
+    <t>3300</t>
+  </si>
+  <si>
+    <t>3301</t>
+  </si>
+  <si>
+    <t>3459</t>
+  </si>
+  <si>
+    <t>3524</t>
+  </si>
+  <si>
+    <t>3526</t>
+  </si>
+  <si>
+    <t>3502</t>
+  </si>
+  <si>
+    <t>3655</t>
+  </si>
+  <si>
+    <t>3682</t>
+  </si>
+  <si>
+    <t>3752</t>
+  </si>
+  <si>
+    <t>3832</t>
+  </si>
+  <si>
+    <t>3931</t>
+  </si>
+  <si>
+    <t>3902</t>
+  </si>
+  <si>
+    <t>3990</t>
+  </si>
+  <si>
+    <t>3980</t>
+  </si>
+  <si>
+    <t>4095</t>
+  </si>
+  <si>
+    <t>4245</t>
+  </si>
+  <si>
+    <t>4291</t>
+  </si>
+  <si>
+    <t>4275</t>
+  </si>
+  <si>
+    <t>4501</t>
+  </si>
+  <si>
+    <t>4495</t>
   </si>
   <si>
     <t>4607</t>
   </si>
   <si>
-    <t>4681</t>
-  </si>
-  <si>
-    <t>4624</t>
+    <t>4560</t>
+  </si>
+  <si>
+    <t>4583</t>
+  </si>
+  <si>
+    <t>4597</t>
+  </si>
+  <si>
+    <t>4689</t>
+  </si>
+  <si>
+    <t>4694</t>
+  </si>
+  <si>
+    <t>4886</t>
   </si>
   <si>
     <t>4894</t>
   </si>
   <si>
-    <t>4913</t>
-  </si>
-  <si>
-    <t>4961</t>
-  </si>
-  <si>
-    <t>4832</t>
-  </si>
-  <si>
-    <t>5150</t>
-  </si>
-  <si>
-    <t>4562</t>
-  </si>
-  <si>
-    <t>4358</t>
-  </si>
-  <si>
-    <t>3997</t>
-  </si>
-  <si>
-    <t>3907</t>
-  </si>
-  <si>
-    <t>4112</t>
-  </si>
-  <si>
-    <t>4333</t>
-  </si>
-  <si>
-    <t>4574</t>
-  </si>
-  <si>
-    <t>4800</t>
-  </si>
-  <si>
-    <t>5024</t>
-  </si>
-  <si>
-    <t>5193</t>
-  </si>
-  <si>
-    <t>5462</t>
-  </si>
-  <si>
-    <t>5747</t>
-  </si>
-  <si>
-    <t>5668</t>
-  </si>
-  <si>
-    <t>5818</t>
-  </si>
-  <si>
-    <t>6029</t>
-  </si>
-  <si>
-    <t>6280</t>
-  </si>
-  <si>
-    <t>6422</t>
-  </si>
-  <si>
-    <t>6495</t>
-  </si>
-  <si>
-    <t>6442</t>
-  </si>
-  <si>
-    <t>6608</t>
-  </si>
-  <si>
-    <t>6952</t>
-  </si>
-  <si>
-    <t>7253</t>
-  </si>
-  <si>
-    <t>7583</t>
-  </si>
-  <si>
-    <t>7862</t>
-  </si>
-  <si>
-    <t>8341</t>
-  </si>
-  <si>
-    <t>8559</t>
-  </si>
-  <si>
-    <t>8776</t>
-  </si>
-  <si>
-    <t>9072</t>
-  </si>
-  <si>
-    <t>9416</t>
-  </si>
-  <si>
-    <t>10018</t>
-  </si>
-  <si>
-    <t>10611</t>
-  </si>
-  <si>
-    <t>10970</t>
-  </si>
-  <si>
-    <t>11503</t>
-  </si>
-  <si>
-    <t>12170</t>
-  </si>
-  <si>
-    <t>12643</t>
-  </si>
-  <si>
-    <t>12441</t>
-  </si>
-  <si>
-    <t>13122</t>
-  </si>
-  <si>
-    <t>13190</t>
-  </si>
-  <si>
-    <t>13554</t>
-  </si>
-  <si>
-    <t>13861</t>
-  </si>
-  <si>
-    <t>14467</t>
-  </si>
-  <si>
-    <t>14279</t>
-  </si>
-  <si>
-    <t>14474</t>
-  </si>
-  <si>
-    <t>14833</t>
-  </si>
-  <si>
-    <t>14977</t>
-  </si>
-  <si>
-    <t>15195</t>
-  </si>
-  <si>
-    <t>15541</t>
-  </si>
-  <si>
-    <t>16252</t>
-  </si>
-  <si>
-    <t>16744</t>
-  </si>
-  <si>
-    <t>17196.977524</t>
-  </si>
-  <si>
-    <t>17450.6306668</t>
-  </si>
-  <si>
-    <t>17645.1976085</t>
-  </si>
-  <si>
-    <t>17406.492336</t>
-  </si>
-  <si>
-    <t>17901.6676035</t>
-  </si>
-  <si>
-    <t>18269.8331735</t>
-  </si>
-  <si>
-    <t>18487.3567261</t>
-  </si>
-  <si>
-    <t>19138.6597175</t>
-  </si>
-  <si>
-    <t>19474.9110064</t>
-  </si>
-  <si>
-    <t>20127.5765315</t>
-  </si>
-  <si>
-    <t>20809.3586863</t>
-  </si>
-  <si>
-    <t>20920.2511155</t>
-  </si>
-  <si>
-    <t>21162.9746789</t>
-  </si>
-  <si>
-    <t>21294.789765</t>
-  </si>
-  <si>
-    <t>21954.9480687</t>
-  </si>
-  <si>
-    <t>22304.690387</t>
-  </si>
-  <si>
-    <t>22867.0218045</t>
-  </si>
-  <si>
-    <t>23496.5421281</t>
-  </si>
-  <si>
-    <t>23701.2961423</t>
-  </si>
-  <si>
-    <t>23020.272048</t>
-  </si>
-  <si>
-    <t>23556.8230986</t>
+    <t>4999</t>
+  </si>
+  <si>
+    <t>5013</t>
+  </si>
+  <si>
+    <t>5002</t>
+  </si>
+  <si>
+    <t>5026</t>
+  </si>
+  <si>
+    <t>5180</t>
+  </si>
+  <si>
+    <t>5176</t>
+  </si>
+  <si>
+    <t>5386</t>
+  </si>
+  <si>
+    <t>5464</t>
+  </si>
+  <si>
+    <t>5412</t>
+  </si>
+  <si>
+    <t>5486</t>
+  </si>
+  <si>
+    <t>5507</t>
+  </si>
+  <si>
+    <t>5528</t>
+  </si>
+  <si>
+    <t>5598</t>
+  </si>
+  <si>
+    <t>5660</t>
+  </si>
+  <si>
+    <t>5716</t>
+  </si>
+  <si>
+    <t>5762</t>
+  </si>
+  <si>
+    <t>5828</t>
+  </si>
+  <si>
+    <t>5947</t>
+  </si>
+  <si>
+    <t>5928</t>
+  </si>
+  <si>
+    <t>5960</t>
+  </si>
+  <si>
+    <t>6013</t>
+  </si>
+  <si>
+    <t>6091</t>
+  </si>
+  <si>
+    <t>6188</t>
+  </si>
+  <si>
+    <t>6244</t>
+  </si>
+  <si>
+    <t>6268</t>
+  </si>
+  <si>
+    <t>6269</t>
+  </si>
+  <si>
+    <t>6330</t>
+  </si>
+  <si>
+    <t>6478</t>
+  </si>
+  <si>
+    <t>6612</t>
+  </si>
+  <si>
+    <t>6704</t>
+  </si>
+  <si>
+    <t>6727</t>
+  </si>
+  <si>
+    <t>6253</t>
+  </si>
+  <si>
+    <t>6150</t>
+  </si>
+  <si>
+    <t>6503</t>
+  </si>
+  <si>
+    <t>5609</t>
+  </si>
+  <si>
+    <t>5402</t>
+  </si>
+  <si>
+    <t>6315</t>
+  </si>
+  <si>
+    <t>6465</t>
+  </si>
+  <si>
+    <t>7034</t>
+  </si>
+  <si>
+    <t>7226</t>
+  </si>
+  <si>
+    <t>7393</t>
+  </si>
+  <si>
+    <t>7438</t>
+  </si>
+  <si>
+    <t>7626</t>
+  </si>
+  <si>
+    <t>7847</t>
+  </si>
+  <si>
+    <t>8191</t>
+  </si>
+  <si>
+    <t>8056</t>
+  </si>
+  <si>
+    <t>7936</t>
+  </si>
+  <si>
+    <t>7747</t>
+  </si>
+  <si>
+    <t>7343</t>
+  </si>
+  <si>
+    <t>7461</t>
+  </si>
+  <si>
+    <t>7371</t>
+  </si>
+  <si>
+    <t>7801</t>
+  </si>
+  <si>
+    <t>7831</t>
+  </si>
+  <si>
+    <t>7908</t>
+  </si>
+  <si>
+    <t>7702</t>
+  </si>
+  <si>
+    <t>8209</t>
+  </si>
+  <si>
+    <t>7272</t>
+  </si>
+  <si>
+    <t>6947</t>
+  </si>
+  <si>
+    <t>6371</t>
+  </si>
+  <si>
+    <t>6228</t>
+  </si>
+  <si>
+    <t>6554</t>
+  </si>
+  <si>
+    <t>6907</t>
+  </si>
+  <si>
+    <t>7291</t>
+  </si>
+  <si>
+    <t>7651</t>
+  </si>
+  <si>
+    <t>8008</t>
+  </si>
+  <si>
+    <t>8278</t>
+  </si>
+  <si>
+    <t>8706</t>
+  </si>
+  <si>
+    <t>9161</t>
+  </si>
+  <si>
+    <t>9035</t>
+  </si>
+  <si>
+    <t>9274</t>
+  </si>
+  <si>
+    <t>9610</t>
+  </si>
+  <si>
+    <t>10010</t>
+  </si>
+  <si>
+    <t>10237</t>
+  </si>
+  <si>
+    <t>10353</t>
+  </si>
+  <si>
+    <t>10268</t>
+  </si>
+  <si>
+    <t>10533</t>
+  </si>
+  <si>
+    <t>11081</t>
+  </si>
+  <si>
+    <t>11561</t>
+  </si>
+  <si>
+    <t>12087</t>
+  </si>
+  <si>
+    <t>12532</t>
+  </si>
+  <si>
+    <t>13295</t>
+  </si>
+  <si>
+    <t>13643</t>
+  </si>
+  <si>
+    <t>13989</t>
+  </si>
+  <si>
+    <t>14461</t>
+  </si>
+  <si>
+    <t>15009</t>
+  </si>
+  <si>
+    <t>15969</t>
+  </si>
+  <si>
+    <t>16914</t>
+  </si>
+  <si>
+    <t>17486</t>
+  </si>
+  <si>
+    <t>18336</t>
+  </si>
+  <si>
+    <t>19399</t>
+  </si>
+  <si>
+    <t>20153</t>
+  </si>
+  <si>
+    <t>19831</t>
+  </si>
+  <si>
+    <t>20916</t>
+  </si>
+  <si>
+    <t>21025</t>
+  </si>
+  <si>
+    <t>21605</t>
+  </si>
+  <si>
+    <t>22094</t>
+  </si>
+  <si>
+    <t>23060</t>
+  </si>
+  <si>
+    <t>22760</t>
+  </si>
+  <si>
+    <t>23071</t>
+  </si>
+  <si>
+    <t>23644</t>
+  </si>
+  <si>
+    <t>23873</t>
+  </si>
+  <si>
+    <t>24221</t>
+  </si>
+  <si>
+    <t>24772</t>
+  </si>
+  <si>
+    <t>25905</t>
+  </si>
+  <si>
+    <t>26690</t>
+  </si>
+  <si>
+    <t>27412</t>
+  </si>
+  <si>
+    <t>27848.3041644736</t>
+  </si>
+  <si>
+    <t>28199.5737762424</t>
+  </si>
+  <si>
+    <t>27857.2494401235</t>
+  </si>
+  <si>
+    <t>28706.5005739567</t>
+  </si>
+  <si>
+    <t>29370.0870816957</t>
+  </si>
+  <si>
+    <t>29820.2994882708</t>
+  </si>
+  <si>
+    <t>30894.2827975895</t>
+  </si>
+  <si>
+    <t>31480.7434485821</t>
+  </si>
+  <si>
+    <t>32571.6744997198</t>
+  </si>
+  <si>
+    <t>33719.7698385542</t>
+  </si>
+  <si>
+    <t>33923.3420447507</t>
+  </si>
+  <si>
+    <t>34419.6937518547</t>
+  </si>
+  <si>
+    <t>34588.4760210267</t>
+  </si>
+  <si>
+    <t>35740.3524626094</t>
+  </si>
+  <si>
+    <t>36338.3831150495</t>
+  </si>
+  <si>
+    <t>37051.9022458534</t>
+  </si>
+  <si>
+    <t>38082.8733357485</t>
+  </si>
+  <si>
+    <t>38117.3484155223</t>
+  </si>
+  <si>
+    <t>36998.6492622988</t>
+  </si>
+  <si>
+    <t>37739.3274928982</t>
+  </si>
+  <si>
+    <t>38130</t>
+  </si>
+  <si>
+    <t>37906</t>
+  </si>
+  <si>
+    <t>37737</t>
+  </si>
+  <si>
+    <t>38228</t>
+  </si>
+  <si>
+    <t>38569</t>
+  </si>
+  <si>
+    <t>38766</t>
   </si>
   <si>
     <t>Description</t>
@@ -6101,7 +6119,7 @@
         <v>1820.0</v>
       </c>
       <c r="E322" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="323">
@@ -9332,6 +9350,108 @@
       </c>
       <c r="E512" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B513" t="s">
+        <v>5</v>
+      </c>
+      <c r="C513" t="s">
+        <v>6</v>
+      </c>
+      <c r="D513" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E513" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B514" t="s">
+        <v>5</v>
+      </c>
+      <c r="C514" t="s">
+        <v>6</v>
+      </c>
+      <c r="D514" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E514" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B515" t="s">
+        <v>5</v>
+      </c>
+      <c r="C515" t="s">
+        <v>6</v>
+      </c>
+      <c r="D515" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E515" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B516" t="s">
+        <v>5</v>
+      </c>
+      <c r="C516" t="s">
+        <v>6</v>
+      </c>
+      <c r="D516" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E516" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B517" t="s">
+        <v>5</v>
+      </c>
+      <c r="C517" t="s">
+        <v>6</v>
+      </c>
+      <c r="D517" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E517" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B518" t="s">
+        <v>5</v>
+      </c>
+      <c r="C518" t="s">
+        <v>6</v>
+      </c>
+      <c r="D518" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E518" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -9349,50 +9469,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B6" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
